--- a/excelFile/2023-12-05-家電-安裝確認書.xlsx
+++ b/excelFile/2023-12-05-家電-安裝確認書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark-proart\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A709E0-44B8-447F-97A1-413EBABBC667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B353CB15-4C16-934D-B5E5-11B261F22BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="19500" tabRatio="836" xr2:uid="{27EBA309-DDB6-4B07-B11E-16E8EC6E0A4C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="27820" windowHeight="17260" tabRatio="836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <r>
       <rPr>
@@ -2430,13 +2430,13 @@
     <t>QR CODE</t>
   </si>
   <si>
-    <t>地址</t>
-  </si>
-  <si>
-    <t>☐ 是 ☑ 否</t>
-  </si>
-  <si>
-    <t>備註</t>
+    <t>0000130</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>☑ 是 ☐ 否</t>
   </si>
 </sst>
 </file>
@@ -2448,7 +2448,7 @@
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="178" formatCode="000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2907,13 +2907,49 @@
     <xf numFmtId="176" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2943,6 +2979,60 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2967,6 +3057,81 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2987,171 +3152,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3466,45 +3466,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFCD703-2AAA-4560-9697-7517FFE78502}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:I7"/>
+      <selection activeCell="B5" sqref="A1:I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.36328125" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.33203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6328125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="7.36328125" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="7.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:9" ht="40" customHeight="1">
+      <c r="A1" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
@@ -3512,39 +3515,37 @@
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="36" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
       <c r="G3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="34.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75" t="s">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="34.25" customHeight="1">
+      <c r="A4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3554,446 +3555,452 @@
       <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="91"/>
+      <c r="I4" s="82"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="87"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="53" t="s">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="67"/>
+      <c r="G5" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="88"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="69"/>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="89"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
     </row>
-    <row r="8" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="50.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
+      <c r="B8" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="50" t="s">
+    <row r="9" spans="1:9" ht="30" customHeight="1">
+      <c r="A9" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="51" t="s">
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="44" t="s">
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="45"/>
+      <c r="I9" s="64"/>
     </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="50" t="s">
+    <row r="10" spans="1:9" ht="30" customHeight="1">
+      <c r="A10" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="51" t="s">
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="47"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="66"/>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="50" t="s">
+    <row r="11" spans="1:9" ht="30" customHeight="1">
+      <c r="A11" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="51" t="s">
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="49"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="56" t="s">
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1">
+      <c r="A12" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A13" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A14" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A15" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="33"/>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A16" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="33"/>
     </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A17" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="33"/>
     </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A18" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="33"/>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A19" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A20" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="21"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="33"/>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A21" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="33"/>
     </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="19" t="s">
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A22" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="33"/>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A23" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="33"/>
     </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="19" t="s">
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A24" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="33"/>
     </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="19" t="s">
+    <row r="25" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A25" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="33"/>
     </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A26" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
     </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A27" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
     </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A28" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="30"/>
     </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A29" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="21"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="33"/>
     </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="19" t="s">
+    <row r="30" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A30" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="21"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="33"/>
     </row>
-    <row r="31" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="19" t="s">
+    <row r="31" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A31" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="21"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="33"/>
     </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="30" t="s">
+    <row r="32" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A32" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="32"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="87"/>
     </row>
-    <row r="33" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="35"/>
+    <row r="33" spans="1:9" s="4" customFormat="1" ht="11.75" customHeight="1">
+      <c r="A33" s="88"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="90"/>
     </row>
-    <row r="34" spans="1:9" s="4" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" s="4" customFormat="1" ht="35.25" customHeight="1">
       <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="37" t="s">
+      <c r="C34" s="91"/>
+      <c r="D34" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37" t="s">
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="37"/>
-      <c r="I34" s="38"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="84"/>
     </row>
-    <row r="35" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="23" t="s">
+    <row r="35" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A35" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="26" t="s">
+      <c r="D35" s="58"/>
+      <c r="E35" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="26" t="s">
+      <c r="F35" s="58"/>
+      <c r="G35" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
     </row>
-    <row r="36" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="23"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
+    <row r="36" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A36" s="53"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
     </row>
-    <row r="51" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="19.5" customHeight="1"/>
+    <row r="54" ht="20.25" customHeight="1"/>
+    <row r="55" ht="20.25" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="52">
@@ -4003,6 +4010,14 @@
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="G34:I34"/>
     <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B3:F3"/>
@@ -4017,9 +4032,6 @@
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A23:I23"/>
     <mergeCell ref="H35:I36"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
@@ -4028,11 +4040,6 @@
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="H5:I7"/>
@@ -4052,8 +4059,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.49953703703703706" bottom="0.22094907407407408" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.499537037037037" bottom="0.22094907407407399" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;L&amp;"華康兒風體W4(P),標準"&amp;20配送人 :                  配送日期 :  </oddHeader>
   </headerFooter>
